--- a/output/ejecucion_2/gridsearch_results/base_17_19/base_17_19_results_gs_rf_nrs.xlsx
+++ b/output/ejecucion_2/gridsearch_results/base_17_19/base_17_19_results_gs_rf_nrs.xlsx
@@ -561,16 +561,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.569630193710327</v>
+        <v>8.730822610855103</v>
       </c>
       <c r="C2">
-        <v>1.828443867026566</v>
+        <v>2.720420643614106</v>
       </c>
       <c r="D2">
-        <v>3.057626867294311</v>
+        <v>3.738875293731689</v>
       </c>
       <c r="E2">
-        <v>0.4877332830494742</v>
+        <v>0.6015665585156101</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -614,16 +614,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.06201643943787</v>
+        <v>21.97773971557617</v>
       </c>
       <c r="C3">
-        <v>0.6463580964656855</v>
+        <v>1.051045804739523</v>
       </c>
       <c r="D3">
-        <v>3.591614818572998</v>
+        <v>4.466748046875</v>
       </c>
       <c r="E3">
-        <v>0.7341055878208154</v>
+        <v>0.4913045735384839</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -667,16 +667,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>31.63864846229553</v>
+        <v>49.02439541816712</v>
       </c>
       <c r="C4">
-        <v>0.6247808449325407</v>
+        <v>0.8419480848858929</v>
       </c>
       <c r="D4">
-        <v>3.446951770782471</v>
+        <v>4.599144268035888</v>
       </c>
       <c r="E4">
-        <v>0.5984890644472396</v>
+        <v>1.041242038922305</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -720,16 +720,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.09670720100403</v>
+        <v>20.30205903053284</v>
       </c>
       <c r="C5">
-        <v>2.554428453362235</v>
+        <v>3.180231774589969</v>
       </c>
       <c r="D5">
-        <v>4.098328351974487</v>
+        <v>4.787326860427856</v>
       </c>
       <c r="E5">
-        <v>1.122805201404641</v>
+        <v>1.249065866929773</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -773,16 +773,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.2711398601532</v>
+        <v>33.67467918395996</v>
       </c>
       <c r="C6">
-        <v>0.8895875404178094</v>
+        <v>0.4803179528164577</v>
       </c>
       <c r="D6">
-        <v>4.149894714355469</v>
+        <v>5.057651042938232</v>
       </c>
       <c r="E6">
-        <v>0.175118510721609</v>
+        <v>0.7500906366845069</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -826,16 +826,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>43.25075664520264</v>
+        <v>70.1407440662384</v>
       </c>
       <c r="C7">
-        <v>0.6876468384578297</v>
+        <v>1.823666182611235</v>
       </c>
       <c r="D7">
-        <v>4.305447196960449</v>
+        <v>5.513289928436279</v>
       </c>
       <c r="E7">
-        <v>0.2396658661630113</v>
+        <v>0.1406342855435526</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -879,16 +879,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.44172263145447</v>
+        <v>26.00362558364868</v>
       </c>
       <c r="C8">
-        <v>2.886859948267134</v>
+        <v>1.896125221595104</v>
       </c>
       <c r="D8">
-        <v>4.699764966964722</v>
+        <v>5.523801279067993</v>
       </c>
       <c r="E8">
-        <v>1.046685438341604</v>
+        <v>0.749237902920958</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -932,16 +932,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.413263463974</v>
+        <v>45.32666883468628</v>
       </c>
       <c r="C9">
-        <v>0.6827681501457472</v>
+        <v>1.282880584097227</v>
       </c>
       <c r="D9">
-        <v>5.22134256362915</v>
+        <v>5.26378231048584</v>
       </c>
       <c r="E9">
-        <v>0.7789809996779278</v>
+        <v>1.156481309188178</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -985,16 +985,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>54.94079737663269</v>
+        <v>87.1221703529358</v>
       </c>
       <c r="C10">
-        <v>1.386004275421137</v>
+        <v>2.580548653631148</v>
       </c>
       <c r="D10">
-        <v>4.901249027252197</v>
+        <v>5.93460488319397</v>
       </c>
       <c r="E10">
-        <v>1.28765207384286</v>
+        <v>1.286194868299719</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -1038,16 +1038,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.82965245246887</v>
+        <v>23.25905661582947</v>
       </c>
       <c r="C11">
-        <v>0.8758656926314389</v>
+        <v>1.123437286248091</v>
       </c>
       <c r="D11">
-        <v>4.813924789428711</v>
+        <v>5.710094690322876</v>
       </c>
       <c r="E11">
-        <v>1.59704936854291</v>
+        <v>0.6427615237142071</v>
       </c>
       <c r="F11">
         <v>20</v>
@@ -1091,16 +1091,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.30335159301758</v>
+        <v>34.6891565322876</v>
       </c>
       <c r="C12">
-        <v>1.187195737973708</v>
+        <v>0.8191412799033105</v>
       </c>
       <c r="D12">
-        <v>3.032523155212402</v>
+        <v>4.433045196533203</v>
       </c>
       <c r="E12">
-        <v>1.198435743838137</v>
+        <v>0.7918448869382296</v>
       </c>
       <c r="F12">
         <v>20</v>
@@ -1144,16 +1144,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>43.7778238773346</v>
+        <v>69.34436292648316</v>
       </c>
       <c r="C13">
-        <v>2.077150143447129</v>
+        <v>0.9137791451900064</v>
       </c>
       <c r="D13">
-        <v>5.245738840103149</v>
+        <v>5.847066974639892</v>
       </c>
       <c r="E13">
-        <v>1.152323324351057</v>
+        <v>1.298483888837464</v>
       </c>
       <c r="F13">
         <v>20</v>
@@ -1197,16 +1197,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.79210681915283</v>
+        <v>29.21856985092163</v>
       </c>
       <c r="C14">
-        <v>1.951164972264563</v>
+        <v>2.433153108382912</v>
       </c>
       <c r="D14">
-        <v>3.764214134216309</v>
+        <v>4.546887016296386</v>
       </c>
       <c r="E14">
-        <v>0.5977144087995017</v>
+        <v>1.297547814694139</v>
       </c>
       <c r="F14">
         <v>20</v>
@@ -1250,16 +1250,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.9454665184021</v>
+        <v>46.62479643821716</v>
       </c>
       <c r="C15">
-        <v>1.570961488547864</v>
+        <v>1.283545131374777</v>
       </c>
       <c r="D15">
-        <v>5.808954524993896</v>
+        <v>6.391257905960083</v>
       </c>
       <c r="E15">
-        <v>0.3241182844619603</v>
+        <v>0.4162394776227545</v>
       </c>
       <c r="F15">
         <v>20</v>
@@ -1303,16 +1303,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>63.74737319946289</v>
+        <v>98.58775129318238</v>
       </c>
       <c r="C16">
-        <v>0.773185918413117</v>
+        <v>0.4992649250346171</v>
       </c>
       <c r="D16">
-        <v>4.747670936584472</v>
+        <v>6.092302417755127</v>
       </c>
       <c r="E16">
-        <v>1.685134131348286</v>
+        <v>0.1782180362382864</v>
       </c>
       <c r="F16">
         <v>20</v>
@@ -1356,16 +1356,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.94155669212341</v>
+        <v>35.91150002479553</v>
       </c>
       <c r="C17">
-        <v>4.524856010931853</v>
+        <v>3.659574435969464</v>
       </c>
       <c r="D17">
-        <v>4.706092739105225</v>
+        <v>5.465077209472656</v>
       </c>
       <c r="E17">
-        <v>1.315896667357217</v>
+        <v>0.6937825980499086</v>
       </c>
       <c r="F17">
         <v>20</v>
@@ -1409,16 +1409,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>38.97890915870666</v>
+        <v>61.06972336769104</v>
       </c>
       <c r="C18">
-        <v>0.4503082121061653</v>
+        <v>0.9005338586276244</v>
       </c>
       <c r="D18">
-        <v>5.651518058776856</v>
+        <v>6.42022933959961</v>
       </c>
       <c r="E18">
-        <v>0.8797715297370622</v>
+        <v>1.271460103904289</v>
       </c>
       <c r="F18">
         <v>20</v>
@@ -1462,16 +1462,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>76.84688272476197</v>
+        <v>119.0959866523743</v>
       </c>
       <c r="C19">
-        <v>1.01871943374648</v>
+        <v>2.000441144807516</v>
       </c>
       <c r="D19">
-        <v>4.974133634567261</v>
+        <v>6.512726783752441</v>
       </c>
       <c r="E19">
-        <v>0.3881282124796862</v>
+        <v>0.5610614899099747</v>
       </c>
       <c r="F19">
         <v>20</v>
@@ -1515,16 +1515,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.00960865020752</v>
+        <v>26.07056722640991</v>
       </c>
       <c r="C20">
-        <v>1.42063315085454</v>
+        <v>1.068572020462297</v>
       </c>
       <c r="D20">
-        <v>5.957220840454101</v>
+        <v>5.428016757965088</v>
       </c>
       <c r="E20">
-        <v>1.08526872963503</v>
+        <v>0.9751771343531295</v>
       </c>
       <c r="F20">
         <v>30</v>
@@ -1568,16 +1568,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.14070911407471</v>
+        <v>38.27003870010376</v>
       </c>
       <c r="C21">
-        <v>0.5107991175942892</v>
+        <v>2.322992262331053</v>
       </c>
       <c r="D21">
-        <v>3.749804449081421</v>
+        <v>5.621273708343506</v>
       </c>
       <c r="E21">
-        <v>1.355068719840846</v>
+        <v>0.9484890663186634</v>
       </c>
       <c r="F21">
         <v>30</v>
@@ -1621,16 +1621,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>49.10608797073364</v>
+        <v>73.40848741531372</v>
       </c>
       <c r="C22">
-        <v>1.866395116380692</v>
+        <v>1.633035197355841</v>
       </c>
       <c r="D22">
-        <v>4.665248441696167</v>
+        <v>5.912520980834961</v>
       </c>
       <c r="E22">
-        <v>1.405563848666787</v>
+        <v>1.481671012060425</v>
       </c>
       <c r="F22">
         <v>30</v>
@@ -1674,16 +1674,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.87867307662964</v>
+        <v>30.10350756645203</v>
       </c>
       <c r="C23">
-        <v>2.269433778159545</v>
+        <v>3.155349589566608</v>
       </c>
       <c r="D23">
-        <v>3.904354524612427</v>
+        <v>4.370030689239502</v>
       </c>
       <c r="E23">
-        <v>1.354342537251444</v>
+        <v>1.173970846547869</v>
       </c>
       <c r="F23">
         <v>30</v>
@@ -1727,16 +1727,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.26744718551636</v>
+        <v>49.60236558914185</v>
       </c>
       <c r="C24">
-        <v>2.031044297680925</v>
+        <v>1.514981791665414</v>
       </c>
       <c r="D24">
-        <v>6.071565818786621</v>
+        <v>6.537720537185669</v>
       </c>
       <c r="E24">
-        <v>0.3703592117734739</v>
+        <v>0.3971514292888338</v>
       </c>
       <c r="F24">
         <v>30</v>
@@ -1780,16 +1780,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>66.45275115966797</v>
+        <v>104.9679208278656</v>
       </c>
       <c r="C25">
-        <v>1.891674852351204</v>
+        <v>1.766074661252875</v>
       </c>
       <c r="D25">
-        <v>5.169173192977905</v>
+        <v>5.97365550994873</v>
       </c>
       <c r="E25">
-        <v>2.259075987494933</v>
+        <v>0.5645240782389047</v>
       </c>
       <c r="F25">
         <v>30</v>
@@ -1833,16 +1833,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>25.74232611656189</v>
+        <v>38.24278635978699</v>
       </c>
       <c r="C26">
-        <v>3.872855769834445</v>
+        <v>4.007491790975453</v>
       </c>
       <c r="D26">
-        <v>3.654665184020996</v>
+        <v>5.739168214797973</v>
       </c>
       <c r="E26">
-        <v>1.063106685432832</v>
+        <v>1.108837780812766</v>
       </c>
       <c r="F26">
         <v>30</v>
@@ -1886,16 +1886,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>40.25984907150269</v>
+        <v>63.52110042572021</v>
       </c>
       <c r="C27">
-        <v>1.206995511520969</v>
+        <v>1.935423097873021</v>
       </c>
       <c r="D27">
-        <v>4.892664766311645</v>
+        <v>5.529395484924317</v>
       </c>
       <c r="E27">
-        <v>0.2809549491000319</v>
+        <v>1.292170490574207</v>
       </c>
       <c r="F27">
         <v>30</v>
@@ -1939,16 +1939,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>62.75079669952392</v>
+        <v>98.24437909126281</v>
       </c>
       <c r="C28">
-        <v>6.922229061488788</v>
+        <v>12.85690069713791</v>
       </c>
       <c r="D28">
-        <v>2.290570640563965</v>
+        <v>2.138756465911865</v>
       </c>
       <c r="E28">
-        <v>1.324130825169952</v>
+        <v>1.007854561422193</v>
       </c>
       <c r="F28">
         <v>30</v>

--- a/output/ejecucion_2/gridsearch_results/base_17_19/base_17_19_results_gs_rf_nrs.xlsx
+++ b/output/ejecucion_2/gridsearch_results/base_17_19/base_17_19_results_gs_rf_nrs.xlsx
@@ -561,16 +561,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.730822610855103</v>
+        <v>5.569630193710327</v>
       </c>
       <c r="C2">
-        <v>2.720420643614106</v>
+        <v>1.828443867026566</v>
       </c>
       <c r="D2">
-        <v>3.738875293731689</v>
+        <v>3.057626867294311</v>
       </c>
       <c r="E2">
-        <v>0.6015665585156101</v>
+        <v>0.4877332830494742</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -614,16 +614,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.97773971557617</v>
+        <v>14.06201643943787</v>
       </c>
       <c r="C3">
-        <v>1.051045804739523</v>
+        <v>0.6463580964656855</v>
       </c>
       <c r="D3">
-        <v>4.466748046875</v>
+        <v>3.591614818572998</v>
       </c>
       <c r="E3">
-        <v>0.4913045735384839</v>
+        <v>0.7341055878208154</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -667,16 +667,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>49.02439541816712</v>
+        <v>31.63864846229553</v>
       </c>
       <c r="C4">
-        <v>0.8419480848858929</v>
+        <v>0.6247808449325407</v>
       </c>
       <c r="D4">
-        <v>4.599144268035888</v>
+        <v>3.446951770782471</v>
       </c>
       <c r="E4">
-        <v>1.041242038922305</v>
+        <v>0.5984890644472396</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -720,16 +720,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.30205903053284</v>
+        <v>13.09670720100403</v>
       </c>
       <c r="C5">
-        <v>3.180231774589969</v>
+        <v>2.554428453362235</v>
       </c>
       <c r="D5">
-        <v>4.787326860427856</v>
+        <v>4.098328351974487</v>
       </c>
       <c r="E5">
-        <v>1.249065866929773</v>
+        <v>1.122805201404641</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -773,16 +773,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>33.67467918395996</v>
+        <v>20.2711398601532</v>
       </c>
       <c r="C6">
-        <v>0.4803179528164577</v>
+        <v>0.8895875404178094</v>
       </c>
       <c r="D6">
-        <v>5.057651042938232</v>
+        <v>4.149894714355469</v>
       </c>
       <c r="E6">
-        <v>0.7500906366845069</v>
+        <v>0.175118510721609</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -826,16 +826,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>70.1407440662384</v>
+        <v>43.25075664520264</v>
       </c>
       <c r="C7">
-        <v>1.823666182611235</v>
+        <v>0.6876468384578297</v>
       </c>
       <c r="D7">
-        <v>5.513289928436279</v>
+        <v>4.305447196960449</v>
       </c>
       <c r="E7">
-        <v>0.1406342855435526</v>
+        <v>0.2396658661630113</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -879,16 +879,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.00362558364868</v>
+        <v>17.44172263145447</v>
       </c>
       <c r="C8">
-        <v>1.896125221595104</v>
+        <v>2.886859948267134</v>
       </c>
       <c r="D8">
-        <v>5.523801279067993</v>
+        <v>4.699764966964722</v>
       </c>
       <c r="E8">
-        <v>0.749237902920958</v>
+        <v>1.046685438341604</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -932,16 +932,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>45.32666883468628</v>
+        <v>27.413263463974</v>
       </c>
       <c r="C9">
-        <v>1.282880584097227</v>
+        <v>0.6827681501457472</v>
       </c>
       <c r="D9">
-        <v>5.26378231048584</v>
+        <v>5.22134256362915</v>
       </c>
       <c r="E9">
-        <v>1.156481309188178</v>
+        <v>0.7789809996779278</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -985,16 +985,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>87.1221703529358</v>
+        <v>54.94079737663269</v>
       </c>
       <c r="C10">
-        <v>2.580548653631148</v>
+        <v>1.386004275421137</v>
       </c>
       <c r="D10">
-        <v>5.93460488319397</v>
+        <v>4.901249027252197</v>
       </c>
       <c r="E10">
-        <v>1.286194868299719</v>
+        <v>1.28765207384286</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -1038,16 +1038,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.25905661582947</v>
+        <v>15.82965245246887</v>
       </c>
       <c r="C11">
-        <v>1.123437286248091</v>
+        <v>0.8758656926314389</v>
       </c>
       <c r="D11">
-        <v>5.710094690322876</v>
+        <v>4.813924789428711</v>
       </c>
       <c r="E11">
-        <v>0.6427615237142071</v>
+        <v>1.59704936854291</v>
       </c>
       <c r="F11">
         <v>20</v>
@@ -1091,16 +1091,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.6891565322876</v>
+        <v>22.30335159301758</v>
       </c>
       <c r="C12">
-        <v>0.8191412799033105</v>
+        <v>1.187195737973708</v>
       </c>
       <c r="D12">
-        <v>4.433045196533203</v>
+        <v>3.032523155212402</v>
       </c>
       <c r="E12">
-        <v>0.7918448869382296</v>
+        <v>1.198435743838137</v>
       </c>
       <c r="F12">
         <v>20</v>
@@ -1144,16 +1144,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>69.34436292648316</v>
+        <v>43.7778238773346</v>
       </c>
       <c r="C13">
-        <v>0.9137791451900064</v>
+        <v>2.077150143447129</v>
       </c>
       <c r="D13">
-        <v>5.847066974639892</v>
+        <v>5.245738840103149</v>
       </c>
       <c r="E13">
-        <v>1.298483888837464</v>
+        <v>1.152323324351057</v>
       </c>
       <c r="F13">
         <v>20</v>
@@ -1197,16 +1197,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.21856985092163</v>
+        <v>19.79210681915283</v>
       </c>
       <c r="C14">
-        <v>2.433153108382912</v>
+        <v>1.951164972264563</v>
       </c>
       <c r="D14">
-        <v>4.546887016296386</v>
+        <v>3.764214134216309</v>
       </c>
       <c r="E14">
-        <v>1.297547814694139</v>
+        <v>0.5977144087995017</v>
       </c>
       <c r="F14">
         <v>20</v>
@@ -1250,16 +1250,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>46.62479643821716</v>
+        <v>28.9454665184021</v>
       </c>
       <c r="C15">
-        <v>1.283545131374777</v>
+        <v>1.570961488547864</v>
       </c>
       <c r="D15">
-        <v>6.391257905960083</v>
+        <v>5.808954524993896</v>
       </c>
       <c r="E15">
-        <v>0.4162394776227545</v>
+        <v>0.3241182844619603</v>
       </c>
       <c r="F15">
         <v>20</v>
@@ -1303,16 +1303,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>98.58775129318238</v>
+        <v>63.74737319946289</v>
       </c>
       <c r="C16">
-        <v>0.4992649250346171</v>
+        <v>0.773185918413117</v>
       </c>
       <c r="D16">
-        <v>6.092302417755127</v>
+        <v>4.747670936584472</v>
       </c>
       <c r="E16">
-        <v>0.1782180362382864</v>
+        <v>1.685134131348286</v>
       </c>
       <c r="F16">
         <v>20</v>
@@ -1356,16 +1356,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>35.91150002479553</v>
+        <v>23.94155669212341</v>
       </c>
       <c r="C17">
-        <v>3.659574435969464</v>
+        <v>4.524856010931853</v>
       </c>
       <c r="D17">
-        <v>5.465077209472656</v>
+        <v>4.706092739105225</v>
       </c>
       <c r="E17">
-        <v>0.6937825980499086</v>
+        <v>1.315896667357217</v>
       </c>
       <c r="F17">
         <v>20</v>
@@ -1409,16 +1409,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>61.06972336769104</v>
+        <v>38.97890915870666</v>
       </c>
       <c r="C18">
-        <v>0.9005338586276244</v>
+        <v>0.4503082121061653</v>
       </c>
       <c r="D18">
-        <v>6.42022933959961</v>
+        <v>5.651518058776856</v>
       </c>
       <c r="E18">
-        <v>1.271460103904289</v>
+        <v>0.8797715297370622</v>
       </c>
       <c r="F18">
         <v>20</v>
@@ -1462,16 +1462,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>119.0959866523743</v>
+        <v>76.84688272476197</v>
       </c>
       <c r="C19">
-        <v>2.000441144807516</v>
+        <v>1.01871943374648</v>
       </c>
       <c r="D19">
-        <v>6.512726783752441</v>
+        <v>4.974133634567261</v>
       </c>
       <c r="E19">
-        <v>0.5610614899099747</v>
+        <v>0.3881282124796862</v>
       </c>
       <c r="F19">
         <v>20</v>
@@ -1515,16 +1515,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.07056722640991</v>
+        <v>19.00960865020752</v>
       </c>
       <c r="C20">
-        <v>1.068572020462297</v>
+        <v>1.42063315085454</v>
       </c>
       <c r="D20">
-        <v>5.428016757965088</v>
+        <v>5.957220840454101</v>
       </c>
       <c r="E20">
-        <v>0.9751771343531295</v>
+        <v>1.08526872963503</v>
       </c>
       <c r="F20">
         <v>30</v>
@@ -1568,16 +1568,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>38.27003870010376</v>
+        <v>27.14070911407471</v>
       </c>
       <c r="C21">
-        <v>2.322992262331053</v>
+        <v>0.5107991175942892</v>
       </c>
       <c r="D21">
-        <v>5.621273708343506</v>
+        <v>3.749804449081421</v>
       </c>
       <c r="E21">
-        <v>0.9484890663186634</v>
+        <v>1.355068719840846</v>
       </c>
       <c r="F21">
         <v>30</v>
@@ -1621,16 +1621,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>73.40848741531372</v>
+        <v>49.10608797073364</v>
       </c>
       <c r="C22">
-        <v>1.633035197355841</v>
+        <v>1.866395116380692</v>
       </c>
       <c r="D22">
-        <v>5.912520980834961</v>
+        <v>4.665248441696167</v>
       </c>
       <c r="E22">
-        <v>1.481671012060425</v>
+        <v>1.405563848666787</v>
       </c>
       <c r="F22">
         <v>30</v>
@@ -1674,16 +1674,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.10350756645203</v>
+        <v>21.87867307662964</v>
       </c>
       <c r="C23">
-        <v>3.155349589566608</v>
+        <v>2.269433778159545</v>
       </c>
       <c r="D23">
-        <v>4.370030689239502</v>
+        <v>3.904354524612427</v>
       </c>
       <c r="E23">
-        <v>1.173970846547869</v>
+        <v>1.354342537251444</v>
       </c>
       <c r="F23">
         <v>30</v>
@@ -1727,16 +1727,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>49.60236558914185</v>
+        <v>31.26744718551636</v>
       </c>
       <c r="C24">
-        <v>1.514981791665414</v>
+        <v>2.031044297680925</v>
       </c>
       <c r="D24">
-        <v>6.537720537185669</v>
+        <v>6.071565818786621</v>
       </c>
       <c r="E24">
-        <v>0.3971514292888338</v>
+        <v>0.3703592117734739</v>
       </c>
       <c r="F24">
         <v>30</v>
@@ -1780,16 +1780,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>104.9679208278656</v>
+        <v>66.45275115966797</v>
       </c>
       <c r="C25">
-        <v>1.766074661252875</v>
+        <v>1.891674852351204</v>
       </c>
       <c r="D25">
-        <v>5.97365550994873</v>
+        <v>5.169173192977905</v>
       </c>
       <c r="E25">
-        <v>0.5645240782389047</v>
+        <v>2.259075987494933</v>
       </c>
       <c r="F25">
         <v>30</v>
@@ -1833,16 +1833,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>38.24278635978699</v>
+        <v>25.74232611656189</v>
       </c>
       <c r="C26">
-        <v>4.007491790975453</v>
+        <v>3.872855769834445</v>
       </c>
       <c r="D26">
-        <v>5.739168214797973</v>
+        <v>3.654665184020996</v>
       </c>
       <c r="E26">
-        <v>1.108837780812766</v>
+        <v>1.063106685432832</v>
       </c>
       <c r="F26">
         <v>30</v>
@@ -1886,16 +1886,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>63.52110042572021</v>
+        <v>40.25984907150269</v>
       </c>
       <c r="C27">
-        <v>1.935423097873021</v>
+        <v>1.206995511520969</v>
       </c>
       <c r="D27">
-        <v>5.529395484924317</v>
+        <v>4.892664766311645</v>
       </c>
       <c r="E27">
-        <v>1.292170490574207</v>
+        <v>0.2809549491000319</v>
       </c>
       <c r="F27">
         <v>30</v>
@@ -1939,16 +1939,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>98.24437909126281</v>
+        <v>62.75079669952392</v>
       </c>
       <c r="C28">
-        <v>12.85690069713791</v>
+        <v>6.922229061488788</v>
       </c>
       <c r="D28">
-        <v>2.138756465911865</v>
+        <v>2.290570640563965</v>
       </c>
       <c r="E28">
-        <v>1.007854561422193</v>
+        <v>1.324130825169952</v>
       </c>
       <c r="F28">
         <v>30</v>
